--- a/Code/Results/Cases/Case_0_97/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_97/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1183727938228714</v>
+        <v>0.1650118679366699</v>
       </c>
       <c r="D2">
-        <v>0.06111119239409391</v>
+        <v>0.02393032774912029</v>
       </c>
       <c r="E2">
-        <v>0.5589746073981132</v>
+        <v>0.2160984845063183</v>
       </c>
       <c r="F2">
-        <v>0.3022505325056031</v>
+        <v>0.4256893306939133</v>
       </c>
       <c r="G2">
-        <v>0.236520374249551</v>
+        <v>0.2722042399704065</v>
       </c>
       <c r="H2">
-        <v>0.1063865589940747</v>
+        <v>0.4471840647146337</v>
       </c>
       <c r="I2">
-        <v>0.09599302512161145</v>
+        <v>0.3851305018112612</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.388491392953313</v>
+        <v>0.4507150267031648</v>
       </c>
       <c r="M2">
-        <v>33.58993437431468</v>
+        <v>10.83166273276379</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6792731541221571</v>
+        <v>1.360928806986848</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09831838371188439</v>
+        <v>0.1679523250905532</v>
       </c>
       <c r="D3">
-        <v>0.05312057262135284</v>
+        <v>0.02151435707205707</v>
       </c>
       <c r="E3">
-        <v>0.4669965757802217</v>
+        <v>0.2007278981139464</v>
       </c>
       <c r="F3">
-        <v>0.2525848357615885</v>
+        <v>0.4339240953785364</v>
       </c>
       <c r="G3">
-        <v>0.1862486447137002</v>
+        <v>0.2810089727822245</v>
       </c>
       <c r="H3">
-        <v>0.09839438334833517</v>
+        <v>0.4593102283487553</v>
       </c>
       <c r="I3">
-        <v>0.07179708388438044</v>
+        <v>0.4036577243330548</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.164959612795343</v>
+        <v>0.4056419359975507</v>
       </c>
       <c r="M3">
-        <v>28.69662056873597</v>
+        <v>9.493770058809446</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5551267500433568</v>
+        <v>1.40452338796392</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08835584889592951</v>
+        <v>0.1700221689005303</v>
       </c>
       <c r="D4">
-        <v>0.04830386233759043</v>
+        <v>0.02002672195398247</v>
       </c>
       <c r="E4">
-        <v>0.4151668961647914</v>
+        <v>0.1915133758166405</v>
       </c>
       <c r="F4">
-        <v>0.2266911798916524</v>
+        <v>0.4397381122293709</v>
       </c>
       <c r="G4">
-        <v>0.1606179158815095</v>
+        <v>0.2871200296797838</v>
       </c>
       <c r="H4">
-        <v>0.09596691968047821</v>
+        <v>0.4672993803610055</v>
       </c>
       <c r="I4">
-        <v>0.06225388291790068</v>
+        <v>0.4158589122269252</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.037229456737748</v>
+        <v>0.3782603099191135</v>
       </c>
       <c r="M4">
-        <v>25.80584754257205</v>
+        <v>8.669003382941128</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4951894120717242</v>
+        <v>1.433910271505596</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.08477013972878922</v>
+        <v>0.1709310360037222</v>
       </c>
       <c r="D5">
-        <v>0.04635719176642539</v>
+        <v>0.01941949091180106</v>
       </c>
       <c r="E5">
-        <v>0.3949593523871187</v>
+        <v>0.1878127011975437</v>
       </c>
       <c r="F5">
-        <v>0.2171069430746186</v>
+        <v>0.4422949489621715</v>
       </c>
       <c r="G5">
-        <v>0.1512628936508449</v>
+        <v>0.2897840617094971</v>
       </c>
       <c r="H5">
-        <v>0.09550630801111026</v>
+        <v>0.4706902244931754</v>
       </c>
       <c r="I5">
-        <v>0.05947367480286658</v>
+        <v>0.4210350861506331</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.9870374397607122</v>
+        <v>0.367172497386548</v>
       </c>
       <c r="M5">
-        <v>24.6495538750396</v>
+        <v>8.332052904883938</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4741798439108464</v>
+        <v>1.446533755224365</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0842004774176246</v>
+        <v>0.1710858707823775</v>
       </c>
       <c r="D6">
-        <v>0.04603477109108667</v>
+        <v>0.01931860147112019</v>
       </c>
       <c r="E6">
-        <v>0.3916527902091786</v>
+        <v>0.1872014379605247</v>
       </c>
       <c r="F6">
-        <v>0.2155691129307584</v>
+        <v>0.4427307518979475</v>
       </c>
       <c r="G6">
-        <v>0.1497695633984861</v>
+        <v>0.290236812074447</v>
       </c>
       <c r="H6">
-        <v>0.0954593383481992</v>
+        <v>0.4712613934504404</v>
       </c>
       <c r="I6">
-        <v>0.05907325295794763</v>
+        <v>0.4219068116784612</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.9788021753772398</v>
+        <v>0.3653355346334308</v>
       </c>
       <c r="M6">
-        <v>24.45869331336354</v>
+        <v>8.276050537011486</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4708802453570371</v>
+        <v>1.448668708111555</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08830570516214209</v>
+        <v>0.1700341628590678</v>
       </c>
       <c r="D7">
-        <v>0.04827755053388927</v>
+        <v>0.02001853662957842</v>
       </c>
       <c r="E7">
-        <v>0.4148909628569939</v>
+        <v>0.1914632495558592</v>
       </c>
       <c r="F7">
-        <v>0.2265582278490115</v>
+        <v>0.4397718390609597</v>
       </c>
       <c r="G7">
-        <v>0.1604876040841461</v>
+        <v>0.2871552589781032</v>
       </c>
       <c r="H7">
-        <v>0.09595867870412178</v>
+        <v>0.4673445650302597</v>
       </c>
       <c r="I7">
-        <v>0.06221216374818184</v>
+        <v>0.4159278981145107</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.0365456341097</v>
+        <v>0.3781104949182748</v>
       </c>
       <c r="M7">
-        <v>25.79017332464963</v>
+        <v>8.664462624953103</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4948930373907245</v>
+        <v>1.434077906127996</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1108894853674656</v>
+        <v>0.165970192328615</v>
       </c>
       <c r="D8">
-        <v>0.05833302798511397</v>
+        <v>0.0230982063705838</v>
       </c>
       <c r="E8">
-        <v>0.5261210594082186</v>
+        <v>0.2107512952723525</v>
       </c>
       <c r="F8">
-        <v>0.2840431788382745</v>
+        <v>0.4283695870586683</v>
       </c>
       <c r="G8">
-        <v>0.2179464489684335</v>
+        <v>0.2750916764502165</v>
       </c>
       <c r="H8">
-        <v>0.1030521127589807</v>
+        <v>0.4512514300811006</v>
       </c>
       <c r="I8">
-        <v>0.08639335062528986</v>
+        <v>0.3913452888872264</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.309073580718348</v>
+        <v>0.4351108030067792</v>
       </c>
       <c r="M8">
-        <v>31.87438880754365</v>
+        <v>10.3710257677198</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6326268678758566</v>
+        <v>1.375410099676998</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1814359587295939</v>
+        <v>0.1601498267356476</v>
       </c>
       <c r="D9">
-        <v>0.0791846587612568</v>
+        <v>0.02910217860512887</v>
       </c>
       <c r="E9">
-        <v>0.797661563802734</v>
+        <v>0.2504332322757534</v>
       </c>
       <c r="F9">
-        <v>0.4448746246169293</v>
+        <v>0.41215756715156</v>
       </c>
       <c r="G9">
-        <v>0.3861841743711096</v>
+        <v>0.2571873838706153</v>
       </c>
       <c r="H9">
-        <v>0.1424715351234909</v>
+        <v>0.4240733686934135</v>
       </c>
       <c r="I9">
-        <v>0.1901333906204137</v>
+        <v>0.3498433774851009</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.953801161184316</v>
+        <v>0.5493872346675062</v>
       </c>
       <c r="M9">
-        <v>45.15083768394658</v>
+        <v>13.69286606534911</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.073926762485456</v>
+        <v>1.281626494062834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2669619616641228</v>
+        <v>0.1572576118093849</v>
       </c>
       <c r="D10">
-        <v>0.09619741609167676</v>
+        <v>0.0334902739569003</v>
       </c>
       <c r="E10">
-        <v>1.068246891587826</v>
+        <v>0.2808541466533967</v>
       </c>
       <c r="F10">
-        <v>0.6174199819474495</v>
+        <v>0.4041811340156869</v>
       </c>
       <c r="G10">
-        <v>0.5742657226744541</v>
+        <v>0.2477606118316018</v>
       </c>
       <c r="H10">
-        <v>0.1996501341536288</v>
+        <v>0.4068679814776885</v>
       </c>
       <c r="I10">
-        <v>0.3319933440854577</v>
+        <v>0.3236535072948996</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.575553505411563</v>
+        <v>0.6351341822538359</v>
       </c>
       <c r="M10">
-        <v>56.73940511172623</v>
+        <v>16.12089203325957</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.594006816859633</v>
+        <v>1.226347551451823</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3216944149191505</v>
+        <v>0.1562593865574655</v>
       </c>
       <c r="D11">
-        <v>0.1047950810078362</v>
+        <v>0.03548135900109628</v>
       </c>
       <c r="E11">
-        <v>1.225302885373367</v>
+        <v>0.2950003944079498</v>
       </c>
       <c r="F11">
-        <v>0.7188189161373018</v>
+        <v>0.4014476501703896</v>
       </c>
       <c r="G11">
-        <v>0.6875502308641046</v>
+        <v>0.244329945003102</v>
       </c>
       <c r="H11">
-        <v>0.2374286070569838</v>
+        <v>0.3996606324285352</v>
       </c>
       <c r="I11">
-        <v>0.4250193688147803</v>
+        <v>0.3127201361737271</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.929401363588624</v>
+        <v>0.6745949786964331</v>
       </c>
       <c r="M11">
-        <v>62.88857652734907</v>
+        <v>17.2234108905709</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.914067523505253</v>
+        <v>1.204302731451065</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3462728281275389</v>
+        <v>0.1559285149356811</v>
       </c>
       <c r="D12">
-        <v>0.1082660630559786</v>
+        <v>0.03623458449263239</v>
       </c>
       <c r="E12">
-        <v>1.29309345047777</v>
+        <v>0.3004042190729734</v>
       </c>
       <c r="F12">
-        <v>0.7624494560251236</v>
+        <v>0.4005446782279023</v>
       </c>
       <c r="G12">
-        <v>0.7368549171853118</v>
+        <v>0.2431582407832735</v>
       </c>
       <c r="H12">
-        <v>0.2544158853079068</v>
+        <v>0.3970221729992289</v>
       </c>
       <c r="I12">
-        <v>0.4668800268901414</v>
+        <v>0.3087249504288252</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.080801906392338</v>
+        <v>0.6896085990754557</v>
       </c>
       <c r="M12">
-        <v>65.43092919065595</v>
+        <v>17.64067521124707</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.054478518278358</v>
+        <v>1.196413179628678</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.340765792581621</v>
+        <v>0.1559976533916227</v>
       </c>
       <c r="D13">
-        <v>0.1075064772807721</v>
+        <v>0.03607239781581484</v>
       </c>
       <c r="E13">
-        <v>1.278031529797374</v>
+        <v>0.2992382757468022</v>
       </c>
       <c r="F13">
-        <v>0.7527695559666725</v>
+        <v>0.4007332171730837</v>
       </c>
       <c r="G13">
-        <v>0.7258879999900358</v>
+        <v>0.2434048554962231</v>
       </c>
       <c r="H13">
-        <v>0.2506122885568374</v>
+        <v>0.3975863459572366</v>
       </c>
       <c r="I13">
-        <v>0.4575028057951762</v>
+        <v>0.3095788690035093</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.047227903927961</v>
+        <v>0.6863719145287348</v>
       </c>
       <c r="M13">
-        <v>64.87154198077616</v>
+        <v>17.55081946101529</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.02319552058924</v>
+        <v>1.198091752636202</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3236248265906596</v>
+        <v>0.1562312121681089</v>
       </c>
       <c r="D14">
-        <v>0.105075481400398</v>
+        <v>0.03554334256844527</v>
       </c>
       <c r="E14">
-        <v>1.230681881662619</v>
+        <v>0.2954440132812266</v>
       </c>
       <c r="F14">
-        <v>0.7222862220177504</v>
+        <v>0.4013706939895769</v>
       </c>
       <c r="G14">
-        <v>0.6914564563542314</v>
+        <v>0.2442309709113744</v>
       </c>
       <c r="H14">
-        <v>0.2387635685158926</v>
+        <v>0.3994417348780956</v>
       </c>
       <c r="I14">
-        <v>0.4283074595055751</v>
+        <v>0.3123885194803897</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.941442335033742</v>
+        <v>0.6758287097738958</v>
       </c>
       <c r="M14">
-        <v>63.09265307599162</v>
+        <v>17.25774388013184</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.925169580156705</v>
+        <v>1.203644396173587</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3136985943890096</v>
+        <v>0.1563804571594574</v>
       </c>
       <c r="D15">
-        <v>0.1036186302914501</v>
+        <v>0.03521918198563867</v>
       </c>
       <c r="E15">
-        <v>1.202917452695374</v>
+        <v>0.2931261153006091</v>
       </c>
       <c r="F15">
-        <v>0.7043815802649931</v>
+        <v>0.4017784782482039</v>
       </c>
       <c r="G15">
-        <v>0.6713078691378058</v>
+        <v>0.2447537063175815</v>
       </c>
       <c r="H15">
-        <v>0.2318989077547258</v>
+        <v>0.4005900917009342</v>
       </c>
       <c r="I15">
-        <v>0.4114014618864488</v>
+        <v>0.3141285220129717</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.879238284541373</v>
+        <v>0.6693800620402612</v>
       </c>
       <c r="M15">
-        <v>62.03482473386475</v>
+        <v>17.07819758574067</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.86794754606089</v>
+        <v>1.207105609243087</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2638098736066183</v>
+        <v>0.157329361658654</v>
       </c>
       <c r="D16">
-        <v>0.09565898506505022</v>
+        <v>0.03336004737616349</v>
       </c>
       <c r="E16">
-        <v>1.058897887434696</v>
+        <v>0.2799360742360903</v>
       </c>
       <c r="F16">
-        <v>0.6113872648045202</v>
+        <v>0.404378076278384</v>
       </c>
       <c r="G16">
-        <v>0.5675857444665553</v>
+        <v>0.2480024194066459</v>
       </c>
       <c r="H16">
-        <v>0.1974858048770756</v>
+        <v>0.4073516111221664</v>
       </c>
       <c r="I16">
-        <v>0.3266602617632479</v>
+        <v>0.3243881036530034</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.554342886832558</v>
+        <v>0.6325649149378592</v>
       </c>
       <c r="M16">
-        <v>56.36112880322617</v>
+        <v>16.04880388205987</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.575263133058911</v>
+        <v>1.227851696044141</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2380278922959747</v>
+        <v>0.1579938281507083</v>
       </c>
       <c r="D17">
-        <v>0.09104045957276696</v>
+        <v>0.03221820757835303</v>
       </c>
       <c r="E17">
-        <v>0.9809213288877743</v>
+        <v>0.2719250773531314</v>
       </c>
       <c r="F17">
-        <v>0.5611780244908431</v>
+        <v>0.4062045112240611</v>
       </c>
       <c r="G17">
-        <v>0.5122654217440612</v>
+        <v>0.2502179433394147</v>
       </c>
       <c r="H17">
-        <v>0.1798839538533201</v>
+        <v>0.4116594664898514</v>
       </c>
       <c r="I17">
-        <v>0.2832333152247379</v>
+        <v>0.3309360164162811</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.376729584936214</v>
+        <v>0.6101000257180829</v>
       </c>
       <c r="M17">
-        <v>53.14825029411867</v>
+        <v>15.41682676331436</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.420693807732192</v>
+        <v>1.241381891427153</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2245556106428239</v>
+        <v>0.1584057996221873</v>
       </c>
       <c r="D18">
-        <v>0.08845706194209413</v>
+        <v>0.03156097429452132</v>
       </c>
       <c r="E18">
-        <v>0.9389791092101873</v>
+        <v>0.2673461461739777</v>
       </c>
       <c r="F18">
-        <v>0.5342937452598306</v>
+        <v>0.4073390646831498</v>
       </c>
       <c r="G18">
-        <v>0.4828545045262018</v>
+        <v>0.2515727283353826</v>
       </c>
       <c r="H18">
-        <v>0.1707850576277963</v>
+        <v>0.4141954333538393</v>
       </c>
       <c r="I18">
-        <v>0.2607252245121643</v>
+        <v>0.3347942485634547</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.280648872528104</v>
+        <v>0.5972212117586366</v>
       </c>
       <c r="M18">
-        <v>51.3755179962522</v>
+        <v>15.05313829377025</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.339045685550843</v>
+        <v>1.249455314643328</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2201973344190122</v>
+        <v>0.1585503580124907</v>
       </c>
       <c r="D19">
-        <v>0.08759319016753864</v>
+        <v>0.03133836528142098</v>
       </c>
       <c r="E19">
-        <v>0.9252126835242152</v>
+        <v>0.2658006622407072</v>
       </c>
       <c r="F19">
-        <v>0.5254957628503334</v>
+        <v>0.4077375345990077</v>
       </c>
       <c r="G19">
-        <v>0.4732628323975945</v>
+        <v>0.2520451333626568</v>
       </c>
       <c r="H19">
-        <v>0.1678610484428589</v>
+        <v>0.4150640122341258</v>
       </c>
       <c r="I19">
-        <v>0.2534794147393171</v>
+        <v>0.3361162666469681</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.249025326083654</v>
+        <v>0.5928677903539779</v>
       </c>
       <c r="M19">
-        <v>50.78655226839987</v>
+        <v>14.9299651590228</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.312506541837507</v>
+        <v>1.252238481732221</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2406244353690994</v>
+        <v>0.1579200010779687</v>
       </c>
       <c r="D20">
-        <v>0.09152411051294962</v>
+        <v>0.03233980796305502</v>
       </c>
       <c r="E20">
-        <v>0.9889046473948326</v>
+        <v>0.2727748636712732</v>
       </c>
       <c r="F20">
-        <v>0.5663068374455023</v>
+        <v>0.406001361966922</v>
       </c>
       <c r="G20">
-        <v>0.5178932390340947</v>
+        <v>0.2499737388697625</v>
       </c>
       <c r="H20">
-        <v>0.1816467060588991</v>
+        <v>0.4111948517701194</v>
       </c>
       <c r="I20">
-        <v>0.2875881283164006</v>
+        <v>0.3302294244699731</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.394973273111191</v>
+        <v>0.6124870259020838</v>
       </c>
       <c r="M20">
-        <v>53.48205752728677</v>
+        <v>15.4841213113101</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.436361461133799</v>
+        <v>1.239911351209145</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.328534864148665</v>
+        <v>0.1561613189118134</v>
       </c>
       <c r="D21">
-        <v>0.1057825053139254</v>
+        <v>0.03569875957848012</v>
       </c>
       <c r="E21">
-        <v>1.244320074739704</v>
+        <v>0.2965571835421059</v>
       </c>
       <c r="F21">
-        <v>0.7310737777093621</v>
+        <v>0.4011798377226015</v>
       </c>
       <c r="G21">
-        <v>0.7013657564253606</v>
+        <v>0.2439848298076726</v>
       </c>
       <c r="H21">
-        <v>0.242158731185782</v>
+        <v>0.398894283782127</v>
       </c>
       <c r="I21">
-        <v>0.43667098571526</v>
+        <v>0.3115592879230853</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.971949871112827</v>
+        <v>0.6789235418462738</v>
       </c>
       <c r="M21">
-        <v>63.6082407341903</v>
+        <v>17.34383323297862</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.953350853290374</v>
+        <v>1.202000911739844</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4107751021416988</v>
+        <v>0.1552873916136264</v>
       </c>
       <c r="D22">
-        <v>0.1164927644833114</v>
+        <v>0.03788961992017903</v>
       </c>
       <c r="E22">
-        <v>1.464803807127112</v>
+        <v>0.312375331145148</v>
       </c>
       <c r="F22">
-        <v>0.871974875876937</v>
+        <v>0.3988005364314944</v>
       </c>
       <c r="G22">
-        <v>0.8620322948068235</v>
+        <v>0.2408153566136946</v>
       </c>
       <c r="H22">
-        <v>0.2987248811391936</v>
+        <v>0.3913852675825069</v>
       </c>
       <c r="I22">
-        <v>0.5763864818121007</v>
+        <v>0.3002046405290066</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.461134350839387</v>
+        <v>0.7227583431900939</v>
       </c>
       <c r="M22">
-        <v>71.60066413668204</v>
+        <v>18.55791729760517</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.413369345530214</v>
+        <v>1.179901690596296</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.363559665976311</v>
+        <v>0.1557281094453913</v>
       </c>
       <c r="D23">
-        <v>0.1105873477454793</v>
+        <v>0.03672072635430368</v>
       </c>
       <c r="E23">
-        <v>1.339930564575099</v>
+        <v>0.3039067828815831</v>
       </c>
       <c r="F23">
-        <v>0.7924871042773844</v>
+        <v>0.3999986406561078</v>
       </c>
       <c r="G23">
-        <v>0.7709870684546871</v>
+        <v>0.2424374592740861</v>
       </c>
       <c r="H23">
-        <v>0.2663398812642725</v>
+        <v>0.3953438869185817</v>
       </c>
       <c r="I23">
-        <v>0.4962969270301585</v>
+        <v>0.3061859379690262</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.184977449003611</v>
+        <v>0.6993230668615809</v>
       </c>
       <c r="M23">
-        <v>67.1510390884701</v>
+        <v>17.9100421117156</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.152015693174832</v>
+        <v>1.191447352502024</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.239446426882779</v>
+        <v>0.1579532850890786</v>
       </c>
       <c r="D24">
-        <v>0.09130523356441955</v>
+        <v>0.03228483483901812</v>
       </c>
       <c r="E24">
-        <v>0.9852865996052884</v>
+        <v>0.272390592322779</v>
       </c>
       <c r="F24">
-        <v>0.5639820463876788</v>
+        <v>0.4060929427703073</v>
       </c>
       <c r="G24">
-        <v>0.5153415942477153</v>
+        <v>0.2500838915642092</v>
       </c>
       <c r="H24">
-        <v>0.1808466467412728</v>
+        <v>0.4114047194363266</v>
       </c>
       <c r="I24">
-        <v>0.2856118123382601</v>
+        <v>0.3305485829843384</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.386706943577138</v>
+        <v>0.6114077496758057</v>
       </c>
       <c r="M24">
-        <v>53.3309167970736</v>
+        <v>15.45369856016708</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.429256076080208</v>
+        <v>1.240575265341008</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1582048288743749</v>
+        <v>0.1614868861438623</v>
       </c>
       <c r="D25">
-        <v>0.07334754571361657</v>
+        <v>0.02748190001256745</v>
       </c>
       <c r="E25">
-        <v>0.7155756592558618</v>
+        <v>0.2394860096989646</v>
       </c>
       <c r="F25">
-        <v>0.3942410578903619</v>
+        <v>0.4158660377126395</v>
       </c>
       <c r="G25">
-        <v>0.3323264148986098</v>
+        <v>0.2613925287730012</v>
       </c>
       <c r="H25">
-        <v>0.1280813738413755</v>
+        <v>0.430947359972663</v>
       </c>
       <c r="I25">
-        <v>0.153605321464493</v>
+        <v>0.3603310372728004</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.761471891662893</v>
+        <v>0.5181787670616131</v>
       </c>
       <c r="M25">
-        <v>41.33786663894961</v>
+        <v>12.79662396037895</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9290435891001039</v>
+        <v>1.304653264975954</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_97/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_97/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1650118679366699</v>
+        <v>0.1183727938228571</v>
       </c>
       <c r="D2">
-        <v>0.02393032774912029</v>
+        <v>0.0611111923939589</v>
       </c>
       <c r="E2">
-        <v>0.2160984845063183</v>
+        <v>0.5589746073981274</v>
       </c>
       <c r="F2">
-        <v>0.4256893306939133</v>
+        <v>0.3022505325056173</v>
       </c>
       <c r="G2">
-        <v>0.2722042399704065</v>
+        <v>0.236520374249551</v>
       </c>
       <c r="H2">
-        <v>0.4471840647146337</v>
+        <v>0.1063865589941955</v>
       </c>
       <c r="I2">
-        <v>0.3851305018112612</v>
+        <v>0.09599302512161501</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4507150267031648</v>
+        <v>1.388491392953313</v>
       </c>
       <c r="M2">
-        <v>10.83166273276379</v>
+        <v>33.58993437431468</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.360928806986848</v>
+        <v>0.6792731541222281</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1679523250905532</v>
+        <v>0.09831838371194124</v>
       </c>
       <c r="D3">
-        <v>0.02151435707205707</v>
+        <v>0.05312057262138836</v>
       </c>
       <c r="E3">
-        <v>0.2007278981139464</v>
+        <v>0.4669965757802075</v>
       </c>
       <c r="F3">
-        <v>0.4339240953785364</v>
+        <v>0.2525848357616169</v>
       </c>
       <c r="G3">
-        <v>0.2810089727822245</v>
+        <v>0.1862486447137144</v>
       </c>
       <c r="H3">
-        <v>0.4593102283487553</v>
+        <v>0.09839438334834227</v>
       </c>
       <c r="I3">
-        <v>0.4036577243330548</v>
+        <v>0.07179708388438044</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4056419359975507</v>
+        <v>1.164959612795201</v>
       </c>
       <c r="M3">
-        <v>9.493770058809446</v>
+        <v>28.6966205687358</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.40452338796392</v>
+        <v>0.5551267500432857</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1700221689005303</v>
+        <v>0.08835584889568793</v>
       </c>
       <c r="D4">
-        <v>0.02002672195398247</v>
+        <v>0.04830386233770412</v>
       </c>
       <c r="E4">
-        <v>0.1915133758166405</v>
+        <v>0.4151668961648269</v>
       </c>
       <c r="F4">
-        <v>0.4397381122293709</v>
+        <v>0.2266911798916524</v>
       </c>
       <c r="G4">
-        <v>0.2871200296797838</v>
+        <v>0.1606179158815166</v>
       </c>
       <c r="H4">
-        <v>0.4672993803610055</v>
+        <v>0.09596691968035742</v>
       </c>
       <c r="I4">
-        <v>0.4158589122269252</v>
+        <v>0.06225388291788292</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3782603099191135</v>
+        <v>1.037229456737634</v>
       </c>
       <c r="M4">
-        <v>8.669003382941128</v>
+        <v>25.80584754257205</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.433910271505596</v>
+        <v>0.4951894120717384</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1709310360037222</v>
+        <v>0.08477013972873237</v>
       </c>
       <c r="D5">
-        <v>0.01941949091180106</v>
+        <v>0.04635719176616249</v>
       </c>
       <c r="E5">
-        <v>0.1878127011975437</v>
+        <v>0.394959352387076</v>
       </c>
       <c r="F5">
-        <v>0.4422949489621715</v>
+        <v>0.2171069430746186</v>
       </c>
       <c r="G5">
-        <v>0.2897840617094971</v>
+        <v>0.1512628936508378</v>
       </c>
       <c r="H5">
-        <v>0.4706902244931754</v>
+        <v>0.09550630801098947</v>
       </c>
       <c r="I5">
-        <v>0.4210350861506331</v>
+        <v>0.05947367480286303</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.367172497386548</v>
+        <v>0.9870374397607691</v>
       </c>
       <c r="M5">
-        <v>8.332052904883938</v>
+        <v>24.64955387503954</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.446533755224365</v>
+        <v>0.4741798439108464</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1710858707823775</v>
+        <v>0.08420047741788039</v>
       </c>
       <c r="D6">
-        <v>0.01931860147112019</v>
+        <v>0.04603477109100851</v>
       </c>
       <c r="E6">
-        <v>0.1872014379605247</v>
+        <v>0.3916527902091929</v>
       </c>
       <c r="F6">
-        <v>0.4427307518979475</v>
+        <v>0.2155691129307584</v>
       </c>
       <c r="G6">
-        <v>0.290236812074447</v>
+        <v>0.1497695633985501</v>
       </c>
       <c r="H6">
-        <v>0.4712613934504404</v>
+        <v>0.09545933834808551</v>
       </c>
       <c r="I6">
-        <v>0.4219068116784612</v>
+        <v>0.05907325295794408</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3653355346334308</v>
+        <v>0.9788021753773535</v>
       </c>
       <c r="M6">
-        <v>8.276050537011486</v>
+        <v>24.45869331336371</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.448668708111555</v>
+        <v>0.470880245356966</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1700341628590678</v>
+        <v>0.08830570516187208</v>
       </c>
       <c r="D7">
-        <v>0.02001853662957842</v>
+        <v>0.04827755053390348</v>
       </c>
       <c r="E7">
-        <v>0.1914632495558592</v>
+        <v>0.414890962857001</v>
       </c>
       <c r="F7">
-        <v>0.4397718390609597</v>
+        <v>0.2265582278489973</v>
       </c>
       <c r="G7">
-        <v>0.2871552589781032</v>
+        <v>0.160487604084075</v>
       </c>
       <c r="H7">
-        <v>0.4673445650302597</v>
+        <v>0.09595867870412889</v>
       </c>
       <c r="I7">
-        <v>0.4159278981145107</v>
+        <v>0.06221216374818539</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3781104949182748</v>
+        <v>1.036545634109757</v>
       </c>
       <c r="M7">
-        <v>8.664462624953103</v>
+        <v>25.79017332464957</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.434077906127996</v>
+        <v>0.4948930373907245</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.165970192328615</v>
+        <v>0.1108894853675366</v>
       </c>
       <c r="D8">
-        <v>0.0230982063705838</v>
+        <v>0.05833302798512818</v>
       </c>
       <c r="E8">
-        <v>0.2107512952723525</v>
+        <v>0.5261210594082257</v>
       </c>
       <c r="F8">
-        <v>0.4283695870586683</v>
+        <v>0.2840431788382674</v>
       </c>
       <c r="G8">
-        <v>0.2750916764502165</v>
+        <v>0.2179464489683269</v>
       </c>
       <c r="H8">
-        <v>0.4512514300811006</v>
+        <v>0.1030521127589807</v>
       </c>
       <c r="I8">
-        <v>0.3913452888872264</v>
+        <v>0.0863933506252792</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4351108030067792</v>
+        <v>1.30907358071849</v>
       </c>
       <c r="M8">
-        <v>10.3710257677198</v>
+        <v>31.87438880754394</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.375410099676998</v>
+        <v>0.6326268678758566</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1601498267356476</v>
+        <v>0.1814359587298213</v>
       </c>
       <c r="D9">
-        <v>0.02910217860512887</v>
+        <v>0.07918465876117153</v>
       </c>
       <c r="E9">
-        <v>0.2504332322757534</v>
+        <v>0.7976615638027411</v>
       </c>
       <c r="F9">
-        <v>0.41215756715156</v>
+        <v>0.4448746246169222</v>
       </c>
       <c r="G9">
-        <v>0.2571873838706153</v>
+        <v>0.3861841743711238</v>
       </c>
       <c r="H9">
-        <v>0.4240733686934135</v>
+        <v>0.1424715351234909</v>
       </c>
       <c r="I9">
-        <v>0.3498433774851009</v>
+        <v>0.1901333906204243</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5493872346675062</v>
+        <v>1.953801161184288</v>
       </c>
       <c r="M9">
-        <v>13.69286606534911</v>
+        <v>45.15083768394658</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.281626494062834</v>
+        <v>1.073926762485485</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1572576118093849</v>
+        <v>0.2669619616638244</v>
       </c>
       <c r="D10">
-        <v>0.0334902739569003</v>
+        <v>0.09619741609163412</v>
       </c>
       <c r="E10">
-        <v>0.2808541466533967</v>
+        <v>1.068246891587833</v>
       </c>
       <c r="F10">
-        <v>0.4041811340156869</v>
+        <v>0.6174199819474637</v>
       </c>
       <c r="G10">
-        <v>0.2477606118316018</v>
+        <v>0.5742657226744399</v>
       </c>
       <c r="H10">
-        <v>0.4068679814776885</v>
+        <v>0.1996501341536288</v>
       </c>
       <c r="I10">
-        <v>0.3236535072948996</v>
+        <v>0.3319933440854577</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6351341822538359</v>
+        <v>2.575553505411591</v>
       </c>
       <c r="M10">
-        <v>16.12089203325957</v>
+        <v>56.739405111726</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.226347551451823</v>
+        <v>1.594006816859633</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1562593865574655</v>
+        <v>0.3216944149193068</v>
       </c>
       <c r="D11">
-        <v>0.03548135900109628</v>
+        <v>0.104795081007822</v>
       </c>
       <c r="E11">
-        <v>0.2950003944079498</v>
+        <v>1.225302885373353</v>
       </c>
       <c r="F11">
-        <v>0.4014476501703896</v>
+        <v>0.7188189161373089</v>
       </c>
       <c r="G11">
-        <v>0.244329945003102</v>
+        <v>0.6875502308640904</v>
       </c>
       <c r="H11">
-        <v>0.3996606324285352</v>
+        <v>0.2374286070568701</v>
       </c>
       <c r="I11">
-        <v>0.3127201361737271</v>
+        <v>0.4250193688147839</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6745949786964331</v>
+        <v>2.92940136358871</v>
       </c>
       <c r="M11">
-        <v>17.2234108905709</v>
+        <v>62.88857652734913</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.204302731451065</v>
+        <v>1.914067523505253</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1559285149356811</v>
+        <v>0.3462728281273399</v>
       </c>
       <c r="D12">
-        <v>0.03623458449263239</v>
+        <v>0.1082660630560355</v>
       </c>
       <c r="E12">
-        <v>0.3004042190729734</v>
+        <v>1.293093450477784</v>
       </c>
       <c r="F12">
-        <v>0.4005446782279023</v>
+        <v>0.7624494560251236</v>
       </c>
       <c r="G12">
-        <v>0.2431582407832735</v>
+        <v>0.736854917185255</v>
       </c>
       <c r="H12">
-        <v>0.3970221729992289</v>
+        <v>0.2544158853079068</v>
       </c>
       <c r="I12">
-        <v>0.3087249504288252</v>
+        <v>0.4668800268901165</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6896085990754557</v>
+        <v>3.080801906392452</v>
       </c>
       <c r="M12">
-        <v>17.64067521124707</v>
+        <v>65.430929190656</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.196413179628678</v>
+        <v>2.054478518278302</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1559976533916227</v>
+        <v>0.3407657925817489</v>
       </c>
       <c r="D13">
-        <v>0.03607239781581484</v>
+        <v>0.1075064772808787</v>
       </c>
       <c r="E13">
-        <v>0.2992382757468022</v>
+        <v>1.278031529797389</v>
       </c>
       <c r="F13">
-        <v>0.4007332171730837</v>
+        <v>0.7527695559666441</v>
       </c>
       <c r="G13">
-        <v>0.2434048554962231</v>
+        <v>0.72588799999005</v>
       </c>
       <c r="H13">
-        <v>0.3975863459572366</v>
+        <v>0.2506122885569653</v>
       </c>
       <c r="I13">
-        <v>0.3095788690035093</v>
+        <v>0.4575028057951798</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6863719145287348</v>
+        <v>3.047227903927904</v>
       </c>
       <c r="M13">
-        <v>17.55081946101529</v>
+        <v>64.87154198077633</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.198091752636202</v>
+        <v>2.023195520589184</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1562312121681089</v>
+        <v>0.3236248265908728</v>
       </c>
       <c r="D14">
-        <v>0.03554334256844527</v>
+        <v>0.1050754814002843</v>
       </c>
       <c r="E14">
-        <v>0.2954440132812266</v>
+        <v>1.230681881662619</v>
       </c>
       <c r="F14">
-        <v>0.4013706939895769</v>
+        <v>0.7222862220177504</v>
       </c>
       <c r="G14">
-        <v>0.2442309709113744</v>
+        <v>0.6914564563541461</v>
       </c>
       <c r="H14">
-        <v>0.3994417348780956</v>
+        <v>0.2387635685159069</v>
       </c>
       <c r="I14">
-        <v>0.3123885194803897</v>
+        <v>0.4283074595055822</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6758287097738958</v>
+        <v>2.941442335033599</v>
       </c>
       <c r="M14">
-        <v>17.25774388013184</v>
+        <v>63.09265307599128</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.203644396173587</v>
+        <v>1.92516958015662</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1563804571594574</v>
+        <v>0.3136985943891375</v>
       </c>
       <c r="D15">
-        <v>0.03521918198563867</v>
+        <v>0.1036186302915922</v>
       </c>
       <c r="E15">
-        <v>0.2931261153006091</v>
+        <v>1.202917452695331</v>
       </c>
       <c r="F15">
-        <v>0.4017784782482039</v>
+        <v>0.7043815802649789</v>
       </c>
       <c r="G15">
-        <v>0.2447537063175815</v>
+        <v>0.6713078691378058</v>
       </c>
       <c r="H15">
-        <v>0.4005900917009342</v>
+        <v>0.2318989077546121</v>
       </c>
       <c r="I15">
-        <v>0.3141285220129717</v>
+        <v>0.4114014618864381</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6693800620402612</v>
+        <v>2.879238284541401</v>
       </c>
       <c r="M15">
-        <v>17.07819758574067</v>
+        <v>62.03482473386418</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.207105609243087</v>
+        <v>1.867947546060805</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.157329361658654</v>
+        <v>0.2638098736066468</v>
       </c>
       <c r="D16">
-        <v>0.03336004737616349</v>
+        <v>0.09565898506523496</v>
       </c>
       <c r="E16">
-        <v>0.2799360742360903</v>
+        <v>1.058897887434689</v>
       </c>
       <c r="F16">
-        <v>0.404378076278384</v>
+        <v>0.6113872648045202</v>
       </c>
       <c r="G16">
-        <v>0.2480024194066459</v>
+        <v>0.5675857444665269</v>
       </c>
       <c r="H16">
-        <v>0.4073516111221664</v>
+        <v>0.1974858048770756</v>
       </c>
       <c r="I16">
-        <v>0.3243881036530034</v>
+        <v>0.326660261763255</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6325649149378592</v>
+        <v>2.554342886832643</v>
       </c>
       <c r="M16">
-        <v>16.04880388205987</v>
+        <v>56.36112880322628</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.227851696044141</v>
+        <v>1.57526313305894</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1579938281507083</v>
+        <v>0.2380278922964152</v>
       </c>
       <c r="D17">
-        <v>0.03221820757835303</v>
+        <v>0.09104045957266749</v>
       </c>
       <c r="E17">
-        <v>0.2719250773531314</v>
+        <v>0.9809213288877956</v>
       </c>
       <c r="F17">
-        <v>0.4062045112240611</v>
+        <v>0.5611780244908431</v>
       </c>
       <c r="G17">
-        <v>0.2502179433394147</v>
+        <v>0.5122654217440896</v>
       </c>
       <c r="H17">
-        <v>0.4116594664898514</v>
+        <v>0.1798839538533201</v>
       </c>
       <c r="I17">
-        <v>0.3309360164162811</v>
+        <v>0.2832333152247521</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6101000257180829</v>
+        <v>2.376729584936214</v>
       </c>
       <c r="M17">
-        <v>15.41682676331436</v>
+        <v>53.14825029411884</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.241381891427153</v>
+        <v>1.420693807732107</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1584057996221873</v>
+        <v>0.2245556106429802</v>
       </c>
       <c r="D18">
-        <v>0.03156097429452132</v>
+        <v>0.0884570619421936</v>
       </c>
       <c r="E18">
-        <v>0.2673461461739777</v>
+        <v>0.9389791092101518</v>
       </c>
       <c r="F18">
-        <v>0.4073390646831498</v>
+        <v>0.5342937452598306</v>
       </c>
       <c r="G18">
-        <v>0.2515727283353826</v>
+        <v>0.4828545045262445</v>
       </c>
       <c r="H18">
-        <v>0.4141954333538393</v>
+        <v>0.1707850576277963</v>
       </c>
       <c r="I18">
-        <v>0.3347942485634547</v>
+        <v>0.2607252245121678</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5972212117586366</v>
+        <v>2.280648872528047</v>
       </c>
       <c r="M18">
-        <v>15.05313829377025</v>
+        <v>51.37551799625203</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.249455314643328</v>
+        <v>1.339045685550786</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1585503580124907</v>
+        <v>0.2201973344187849</v>
       </c>
       <c r="D19">
-        <v>0.03133836528142098</v>
+        <v>0.08759319016754574</v>
       </c>
       <c r="E19">
-        <v>0.2658006622407072</v>
+        <v>0.9252126835242152</v>
       </c>
       <c r="F19">
-        <v>0.4077375345990077</v>
+        <v>0.5254957628503192</v>
       </c>
       <c r="G19">
-        <v>0.2520451333626568</v>
+        <v>0.4732628323976371</v>
       </c>
       <c r="H19">
-        <v>0.4150640122341258</v>
+        <v>0.1678610484428589</v>
       </c>
       <c r="I19">
-        <v>0.3361162666469681</v>
+        <v>0.2534794147393242</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5928677903539779</v>
+        <v>2.249025326083682</v>
       </c>
       <c r="M19">
-        <v>14.9299651590228</v>
+        <v>50.78655226840021</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.252238481732221</v>
+        <v>1.312506541837507</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1579200010779687</v>
+        <v>0.2406244353688578</v>
       </c>
       <c r="D20">
-        <v>0.03233980796305502</v>
+        <v>0.0915241105130562</v>
       </c>
       <c r="E20">
-        <v>0.2727748636712732</v>
+        <v>0.9889046473948184</v>
       </c>
       <c r="F20">
-        <v>0.406001361966922</v>
+        <v>0.5663068374455094</v>
       </c>
       <c r="G20">
-        <v>0.2499737388697625</v>
+        <v>0.5178932390340378</v>
       </c>
       <c r="H20">
-        <v>0.4111948517701194</v>
+        <v>0.1816467060587996</v>
       </c>
       <c r="I20">
-        <v>0.3302294244699731</v>
+        <v>0.2875881283164112</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6124870259020838</v>
+        <v>2.394973273111219</v>
       </c>
       <c r="M20">
-        <v>15.4841213113101</v>
+        <v>53.48205752728683</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.239911351209145</v>
+        <v>1.436361461133771</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1561613189118134</v>
+        <v>0.3285348641486081</v>
       </c>
       <c r="D21">
-        <v>0.03569875957848012</v>
+        <v>0.105782505313698</v>
       </c>
       <c r="E21">
-        <v>0.2965571835421059</v>
+        <v>1.244320074739733</v>
       </c>
       <c r="F21">
-        <v>0.4011798377226015</v>
+        <v>0.7310737777093621</v>
       </c>
       <c r="G21">
-        <v>0.2439848298076726</v>
+        <v>0.7013657564253464</v>
       </c>
       <c r="H21">
-        <v>0.398894283782127</v>
+        <v>0.2421587311856541</v>
       </c>
       <c r="I21">
-        <v>0.3115592879230853</v>
+        <v>0.4366709857152458</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6789235418462738</v>
+        <v>2.971949871112855</v>
       </c>
       <c r="M21">
-        <v>17.34383323297862</v>
+        <v>63.60824073418996</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.202000911739844</v>
+        <v>1.953350853290289</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1552873916136264</v>
+        <v>0.4107751021419688</v>
       </c>
       <c r="D22">
-        <v>0.03788961992017903</v>
+        <v>0.1164927644833682</v>
       </c>
       <c r="E22">
-        <v>0.312375331145148</v>
+        <v>1.464803807127097</v>
       </c>
       <c r="F22">
-        <v>0.3988005364314944</v>
+        <v>0.8719748758769299</v>
       </c>
       <c r="G22">
-        <v>0.2408153566136946</v>
+        <v>0.8620322948068377</v>
       </c>
       <c r="H22">
-        <v>0.3913852675825069</v>
+        <v>0.2987248811391794</v>
       </c>
       <c r="I22">
-        <v>0.3002046405290066</v>
+        <v>0.5763864818121043</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7227583431900939</v>
+        <v>3.461134350839387</v>
       </c>
       <c r="M22">
-        <v>18.55791729760517</v>
+        <v>71.60066413668193</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.179901690596296</v>
+        <v>2.413369345530157</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1557281094453913</v>
+        <v>0.3635596659765099</v>
       </c>
       <c r="D23">
-        <v>0.03672072635430368</v>
+        <v>0.1105873477456569</v>
       </c>
       <c r="E23">
-        <v>0.3039067828815831</v>
+        <v>1.339930564575099</v>
       </c>
       <c r="F23">
-        <v>0.3999986406561078</v>
+        <v>0.7924871042773773</v>
       </c>
       <c r="G23">
-        <v>0.2424374592740861</v>
+        <v>0.770987068454744</v>
       </c>
       <c r="H23">
-        <v>0.3953438869185817</v>
+        <v>0.2663398812641589</v>
       </c>
       <c r="I23">
-        <v>0.3061859379690262</v>
+        <v>0.4962969270301372</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6993230668615809</v>
+        <v>3.184977449003696</v>
       </c>
       <c r="M23">
-        <v>17.9100421117156</v>
+        <v>67.15103908846982</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.191447352502024</v>
+        <v>2.152015693174832</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1579532850890786</v>
+        <v>0.2394464268830063</v>
       </c>
       <c r="D24">
-        <v>0.03228483483901812</v>
+        <v>0.09130523356441955</v>
       </c>
       <c r="E24">
-        <v>0.272390592322779</v>
+        <v>0.9852865996053239</v>
       </c>
       <c r="F24">
-        <v>0.4060929427703073</v>
+        <v>0.5639820463877072</v>
       </c>
       <c r="G24">
-        <v>0.2500838915642092</v>
+        <v>0.5153415942476585</v>
       </c>
       <c r="H24">
-        <v>0.4114047194363266</v>
+        <v>0.1808466467412728</v>
       </c>
       <c r="I24">
-        <v>0.3305485829843384</v>
+        <v>0.2856118123382529</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6114077496758057</v>
+        <v>2.386706943577138</v>
       </c>
       <c r="M24">
-        <v>15.45369856016708</v>
+        <v>53.3309167970736</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.240575265341008</v>
+        <v>1.429256076080151</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1614868861438623</v>
+        <v>0.1582048288746023</v>
       </c>
       <c r="D25">
-        <v>0.02748190001256745</v>
+        <v>0.07334754571372315</v>
       </c>
       <c r="E25">
-        <v>0.2394860096989646</v>
+        <v>0.7155756592558973</v>
       </c>
       <c r="F25">
-        <v>0.4158660377126395</v>
+        <v>0.3942410578903761</v>
       </c>
       <c r="G25">
-        <v>0.2613925287730012</v>
+        <v>0.3323264148985459</v>
       </c>
       <c r="H25">
-        <v>0.430947359972663</v>
+        <v>0.1280813738413684</v>
       </c>
       <c r="I25">
-        <v>0.3603310372728004</v>
+        <v>0.1536053214645001</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5181787670616131</v>
+        <v>1.761471891662893</v>
       </c>
       <c r="M25">
-        <v>12.79662396037895</v>
+        <v>41.33786663894949</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.304653264975954</v>
+        <v>0.9290435891001039</v>
       </c>
     </row>
   </sheetData>
